--- a/插件详细手册/1.系统/性能测试统计表(方块粉碎).xlsx
+++ b/插件详细手册/1.系统/性能测试统计表(方块粉碎).xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B76DC3-B5E6-4E9C-A38C-8183A9CE08D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0434165B-1E9D-4D5A-A59F-9AE0F42D0289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>200事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,50 @@
   </si>
   <si>
     <t>战斗 - 方块粉碎效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片 - 方块粉碎效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_PictureShatterEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话框 - 方块粉碎效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drill_DialogShatterEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44.06ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.18ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60.12ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.49ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.16ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.62ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,8 +460,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -425,13 +469,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -817,25 +861,25 @@
       <c r="H2" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="22" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
         <v>11</v>
       </c>
@@ -845,11 +889,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="25" t="s">
         <v>13</v>
       </c>
@@ -859,11 +903,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="26" t="s">
         <v>15</v>
       </c>
@@ -873,11 +917,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="27" t="s">
         <v>17</v>
       </c>
@@ -887,11 +931,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
@@ -941,12 +985,12 @@
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -994,145 +1038,241 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="5"/>
-    </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.2" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="D13:G13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
@@ -1145,10 +1285,6 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
